--- a/calc.xlsx
+++ b/calc.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="13">
   <si>
     <t>push</t>
   </si>
@@ -36,6 +37,33 @@
   </si>
   <si>
     <t>POP REGS</t>
+  </si>
+  <si>
+    <t>FCPU</t>
+  </si>
+  <si>
+    <t>TMR0 prescale</t>
+  </si>
+  <si>
+    <t>TMR0 interrupt freq</t>
+  </si>
+  <si>
+    <t>Tick duration</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>times/s</t>
+  </si>
+  <si>
+    <t>us per tick</t>
+  </si>
+  <si>
+    <t>atmega 128</t>
+  </si>
+  <si>
+    <t>atmega 328</t>
   </si>
 </sst>
 </file>
@@ -356,15 +384,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,6 +1114,82 @@
       <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>"pop r0   \n"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>16000000</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <f>(B36/B37)/(1000000/C36)</f>
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <f>B36/32/1000000*C36</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <f>D36*64</f>
+        <v>1600</v>
+      </c>
+      <c r="E37">
+        <f>E36*32</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <f>B36/B37/256</f>
+        <v>976.5625</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <f>1/B38*1000</f>
+        <v>1.024</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>1/B39</f>
+        <v>0.9765625</v>
       </c>
     </row>
   </sheetData>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,8 +1142,8 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f>B36/32/1000000*C36</f>
-        <v>50</v>
+        <f>B36/B37/1000000*C36</f>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,11 +1154,11 @@
         <v>64</v>
       </c>
       <c r="D37">
-        <f>D36*64</f>
+        <f>D36*B37</f>
         <v>1600</v>
       </c>
       <c r="E37">
-        <f>E36*32</f>
+        <f>E36*B37</f>
         <v>1600</v>
       </c>
     </row>
@@ -1166,10 +1166,6 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38">
-        <f>B36/B37/256</f>
-        <v>976.5625</v>
-      </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
@@ -1178,18 +1174,18 @@
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="e">
         <f>1/B38*1000</f>
-        <v>1.024</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" t="e">
         <f>1/B39</f>
-        <v>0.9765625</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
